--- a/jpet_store/src/test/resources/Testdata/test data.xlsx
+++ b/jpet_store/src/test/resources/Testdata/test data.xlsx
@@ -1553,7 +1553,7 @@
   <dimension ref="A1:IV15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1616,7 +1616,7 @@
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>700</v>
+        <v>202010</v>
       </c>
       <c r="B2" s="3">
         <v>123</v>

--- a/jpet_store/src/test/resources/Testdata/test data.xlsx
+++ b/jpet_store/src/test/resources/Testdata/test data.xlsx
@@ -1553,7 +1553,7 @@
   <dimension ref="A1:IV15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1616,7 +1616,7 @@
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>202010</v>
+        <v>202123</v>
       </c>
       <c r="B2" s="3">
         <v>123</v>
